--- a/Ecopulpers/Charts/Production Change.xlsx
+++ b/Ecopulpers/Charts/Production Change.xlsx
@@ -462,7 +462,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.003695636987686157</v>
+        <v>-0.09080679295584559</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -473,7 +473,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.04025505416211672</v>
+        <v>1.507005072198808e-05</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -484,7 +484,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.004059715894982219</v>
+        <v>-0.02585718117188662</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>8.691713446751237e-07</v>
+        <v>-0.0158150627357827</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -506,7 +506,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.0002486855737515725</v>
+        <v>-9.122311894316226e-06</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -517,7 +517,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1078369175083935</v>
+        <v>0.007604901795275509</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -528,7 +528,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.124645511561539</v>
+        <v>-0.02197582653025165</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>3.534447023412213e-05</v>
+        <v>-0.01620780266239308</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -550,7 +550,7 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.9559896304272115</v>
+        <v>-0.009092305554077029</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -561,7 +561,7 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.02867251198040321</v>
+        <v>-0.000295000645564869</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -572,7 +572,7 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.05805374402552843</v>
+        <v>-0.01380517426878214</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -580,7 +580,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>0.002939372090622783</v>
+        <v>-0.007521499646827579</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -591,7 +591,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>2.036860678344965e-06</v>
+        <v>-0.7335119653434958</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -602,7 +602,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>0.02183207462076098</v>
+        <v>-0.02365437673870474</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -613,7 +613,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>2.585184120107442e-07</v>
+        <v>-0.00470388107260078</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -624,7 +624,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>0.7872378984466195</v>
+        <v>-0.003564818063750863</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -635,7 +635,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>0.0215098659391515</v>
+        <v>0.00151692409417592</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -646,7 +646,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>0.02391382456698921</v>
+        <v>-0.004216165136313066</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -657,7 +657,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>1.00042325357208e-05</v>
+        <v>-0.004587461477058241</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -668,7 +668,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>0.02867251199495513</v>
+        <v>-0.000295000645564869</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -679,7 +679,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>0.05640805047005415</v>
+        <v>-0.01276754401624203</v>
       </c>
       <c r="C22">
         <v>0</v>

--- a/Ecopulpers/Charts/Production Change.xlsx
+++ b/Ecopulpers/Charts/Production Change.xlsx
@@ -462,7 +462,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>-0.09080679295584559</v>
+        <v>-8.804082051850855</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -473,7 +473,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1.507005072198808e-05</v>
+        <v>0.001461578300222754</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -484,7 +484,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>-0.02585718117188662</v>
+        <v>-2.506954065174796</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>-0.0158150627357827</v>
+        <v>-1.533333595940348</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -506,7 +506,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>-9.122311894316226e-06</v>
+        <v>-0.0008846351120155305</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -517,7 +517,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.007604901795275509</v>
+        <v>0.7370270550018176</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -528,7 +528,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>-0.02197582653025165</v>
+        <v>-2.130658382258844</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>-0.01620780266239308</v>
+        <v>-1.571411290919059</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -550,7 +550,7 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>-0.009092305554077029</v>
+        <v>-0.8815430758986622</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -561,7 +561,7 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>-0.000295000645564869</v>
+        <v>-0.02860128806787543</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -572,7 +572,7 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>-0.01380517426878214</v>
+        <v>-1.338265054859221</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -580,7 +580,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>-0.007521499646827579</v>
+        <v>-0.7292374349199235</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -591,7 +591,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>-0.7335119653434958</v>
+        <v>-71.11691986769438</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -602,7 +602,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>-0.02365437673870474</v>
+        <v>-2.293386437115259</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -613,7 +613,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>-0.00470388107260078</v>
+        <v>-0.4560600868171605</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -624,7 +624,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>-0.003564818063750863</v>
+        <v>-0.345623665722087</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -635,7 +635,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>0.00151692409417592</v>
+        <v>0.1470122990431264</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -646,7 +646,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>-0.004216165136313066</v>
+        <v>-0.4087767791788792</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -657,7 +657,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>-0.004587461477058241</v>
+        <v>-0.4447727375663817</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -668,7 +668,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>-0.000295000645564869</v>
+        <v>-0.02860128808242735</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -679,7 +679,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>-0.01276754401624203</v>
+        <v>-1.237662993371487</v>
       </c>
       <c r="C22">
         <v>0</v>

--- a/Ecopulpers/Charts/Production Change.xlsx
+++ b/Ecopulpers/Charts/Production Change.xlsx
@@ -473,7 +473,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1.507005072198808e-05</v>
+        <v>1.507005072198808E-05</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -506,7 +506,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>-9.122311894316226e-06</v>
+        <v>-9.122311894316226E-06</v>
       </c>
     </row>
     <row r="7" spans="1:3">
